--- a/frontend/upload/examples/utp-example.xlsx
+++ b/frontend/upload/examples/utp-example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Тема</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Почти последняя тема</t>
-  </si>
-  <si>
-    <t>Точно последняя тема</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,12 +546,6 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
